--- a/data.xlsx
+++ b/data.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,7 +575,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +790,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
